--- a/docs/use_cases.xlsx
+++ b/docs/use_cases.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melre\OneDrive\Dokumente\FH Technikum 2024_25\2. Semester\INT PRJ\Projekt\classmate_ITP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50168A-73C7-47D1-B2A9-C761CDE6BA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA10898-4704-45E9-9860-BB8324CE79AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -591,7 +604,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
